--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="股票组合最新调仓" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="股票组合最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,17 +494,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>龙头驾到ETF</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159323</t>
-        </is>
+          <t>热点多因子驱动</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>159529</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股通汽车ETF</t>
+          <t>标普消费ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -514,41 +512,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.18</v>
+        <v>1.704</v>
       </c>
       <c r="G2" t="n">
-        <v>99.92</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45709.39861111111</v>
+        <v>45714.59027777778</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>龙头驾到ETF_159323_卖出_0.00_093400</t>
+          <t>热点多因子驱动_159529_买入_100.00_141000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>龙头驾到ETF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513080</t>
-        </is>
+          <t>热点多因子驱动</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>159822</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>新经济ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,24 +554,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.707</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G3" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
       <c r="I3" s="3" t="n">
-        <v>45709.40833333333</v>
+        <v>45714.59027777778</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>龙头驾到ETF_513080_买入_100.00_094800</t>
+          <t>热点多因子驱动_159822_卖出_0.00_141000</t>
         </is>
       </c>
     </row>
@@ -587,12 +583,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159732</t>
+          <t>159857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,20 +602,20 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.917</v>
+        <v>0.65</v>
       </c>
       <c r="G4" t="n">
-        <v>44.99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>45709.42986111111</v>
+        <v>45714.61736111111</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>热点追击ETF_159732_卖出_20.00_101900</t>
+          <t>热点追击ETF_159857_卖出_60.00_144900</t>
         </is>
       </c>
     </row>
@@ -631,12 +627,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>588200</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -650,284 +646,20 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.601</v>
+        <v>1.652</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>45709.42986111111</v>
+        <v>45714.61736111111</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>热点追击ETF_588200_买入_53.00_101900</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588200</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>科创芯片ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.621</v>
-      </c>
-      <c r="G6" t="n">
-        <v>53.27</v>
-      </c>
-      <c r="H6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>45709.44583333333</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>热点追击ETF_588200_买入_73.00_104200</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159732</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>消费电子ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>45709.44583333333</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>热点追击ETF_159732_卖出_0.00_104200</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>热点多因子驱动</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159561</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德国ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.259</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>45709.56805555556</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>热点多因子驱动_159561_卖出_0.00_133800</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>热点多因子驱动</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>588750</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>科创芯片50ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.121</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>45709.56944444445</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>热点多因子驱动_588750_买入_49.00_134000</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>轮动寻金ETF</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>513360</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>教育ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>45709.59097222222</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>轮动寻金ETF_513360_买入_100.00_141100</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>轮动寻金ETF</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70.31</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>45709.59097222222</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>轮动寻金ETF_512290_卖出_0.00_141100</t>
+          <t>热点追击ETF_513090_买入_40.00_144900</t>
         </is>
       </c>
     </row>
@@ -942,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,12 +742,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000859</t>
+          <t>000782</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国风新材</t>
+          <t>恒申新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1029,20 +761,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.37</v>
+        <v>4.89</v>
       </c>
       <c r="G2" t="n">
-        <v>20.19</v>
+        <v>20.07</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45709.42222222222</v>
+        <v>45714.43402777778</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_000859_卖出_0.00_100800</t>
+          <t>超短稳定复利_000782_卖出_0.00_102500</t>
         </is>
       </c>
     </row>
@@ -1054,12 +786,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>600506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>铖昌科技</t>
+          <t>统一股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1073,7 +805,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30.95</v>
+        <v>20.04</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1082,55 +814,11 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45709.42291666667</v>
+        <v>45714.59375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>超短稳定复利_001270_买入_20.00_100900</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>每天进步一点点</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大为股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>45709.58680555555</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>每天进步一点点_002213_买入_100.00_140500</t>
+          <t>超短稳定复利_600506_买入_20.00_141500</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>股票名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -494,15 +494,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>热点多因子驱动</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159529</v>
+        <v>159857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>标普消费ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,39 +512,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.704</v>
+        <v>0.633</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60.21</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45714.59027777778</v>
+        <v>45716.59375</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点多因子驱动_159529_买入_100.00_141000</t>
+          <t>热点追击ETF_159857_卖出_40.00_141500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>热点多因子驱动</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159822</v>
+        <v>513090</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新经济ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,37 +558,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6909999999999999</v>
+        <v>1.586</v>
       </c>
       <c r="G3" t="n">
-        <v>99.8</v>
+        <v>39.64</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45714.59027777778</v>
+        <v>45716.59375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>热点多因子驱动_159822_卖出_0.00_141000</t>
+          <t>热点追击ETF_513090_卖出_0.00_141500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>龙头驾到ETF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159857</t>
+          <t>159303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>恒生医疗ETF基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -602,64 +602,20 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.65</v>
+        <v>1.235</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>45714.61736111111</v>
+        <v>45716.60694444444</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>热点追击ETF_159857_卖出_60.00_144900</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>香港证券ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.652</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>45714.61736111111</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>热点追击ETF_513090_买入_40.00_144900</t>
+          <t>龙头驾到ETF_159303_卖出_0.00_143400</t>
         </is>
       </c>
     </row>
@@ -674,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,7 +651,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>股票名称</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -737,17 +693,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>每天进步一点点</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000782</t>
+          <t>002213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒申新材</t>
+          <t>大为股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -761,37 +717,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.89</v>
+        <v>17.73</v>
       </c>
       <c r="G2" t="n">
-        <v>20.07</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45714.43402777778</v>
+        <v>45716.41597222222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_000782_卖出_0.00_102500</t>
+          <t>每天进步一点点_002213_卖出_0.00_095900</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>低位题材</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>600506</t>
+          <t>603990</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>统一股份</t>
+          <t>麦迪科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -805,20 +761,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.04</v>
+        <v>14.83</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45714.59375</v>
+        <v>45716.54652777778</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>超短稳定复利_600506_买入_20.00_141500</t>
+          <t>低位题材_603990_买入_100.00_130700</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>低位题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>滨江集团</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45716.54652777778</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>低位题材_002244_卖出_0.00_130700</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,10 +581,8 @@
           <t>龙头驾到ETF</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159303</t>
-        </is>
+      <c r="B4" t="n">
+        <v>159303</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -616,6 +614,50 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>龙头驾到ETF_159303_卖出_0.00_143400</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>45716.65555555555</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>热点追击ETF_159857_卖出_0.00_154400</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="股票组合最新调仓" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,20 +492,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>每天进步一点点</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159857</v>
+        <v>2213</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>大为股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,82 +514,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.633</v>
+        <v>17.73</v>
       </c>
       <c r="G2" t="n">
-        <v>60.21</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>45716.59375</v>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45716.41597222222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点追击ETF_159857_卖出_40.00_141500</t>
+          <t>每天进步一点点_002213_卖出_0.00_095900</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>低位题材</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513090</v>
+        <v>603990</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>麦迪科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.586</v>
+        <v>14.83</v>
       </c>
       <c r="G3" t="n">
-        <v>39.64</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45716.59375</v>
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45716.54652777778</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>热点追击ETF_513090_卖出_0.00_141500</t>
+          <t>低位题材_603990_买入_100.00_130700</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>龙头驾到ETF</t>
+          <t>低位题材</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159303</v>
+        <v>2244</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生医疗ETF基金</t>
+          <t>滨江集团</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -600,7 +598,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.235</v>
+        <v>10.78</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -608,34 +606,32 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>45716.60694444444</v>
+      <c r="I4" s="2" t="n">
+        <v>45716.54652777778</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>龙头驾到ETF_159303_卖出_0.00_143400</t>
+          <t>低位题材_002244_卖出_0.00_130700</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159857</t>
-        </is>
+          <t>低位题材</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>603990</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>麦迪科技</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -644,223 +640,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>45716.65555555555</v>
+      <c r="I5" s="2" t="n">
+        <v>45719.46319444444</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>热点追击ETF_159857_卖出_0.00_154400</t>
+          <t>低位题材_603990_卖出_0.00_110700</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>当前比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>strict_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>每天进步一点点</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大为股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>603843</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>正平股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>45716.41597222222</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>每天进步一点点_002213_卖出_0.00_095900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低位题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>603990</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>麦迪科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45716.54652777778</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>低位题材_603990_买入_100.00_130700</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>低位题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>滨江集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>45716.54652777778</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>低位题材_002244_卖出_0.00_130700</t>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45719.55625</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603843_买入_20.00_132100</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,10 +663,8 @@
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>603843</t>
-        </is>
+      <c r="B6" t="n">
+        <v>603843</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -698,6 +696,50 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>超短稳定复利_603843_买入_20.00_132100</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>600405</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>动力源</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45720.44166666667</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600405_买入_20.00_103600</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="股票组合最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +494,388 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>每天进步一点点</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2213</v>
+        <v>513070</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大为股份</t>
+          <t>港股消费ETF易方达</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45721.39513888889</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>热点追击ETF_513070_买入_20.00_092900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>159751</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>港股科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45721.39583333334</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>热点追击ETF_159751_买入_30.00_093000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>波段优选ETF</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>516640</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>芯片龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45721.4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>波段优选ETF_516640_买入_100.00_093600</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>科技腾飞精选</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>516350</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>芯片ETF易方达</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>45721.4</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>科技腾飞精选_516350_买入_100.00_093600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>159887</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>45721.45694444444</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投_159887_买入_60.00_105800</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>512730</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>45721.475</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投_512730_买入_39.84_112400</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>香港证券ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>45721.47847222222</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>热点追击ETF_513090_买入_50.00_112900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>当前比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>strict_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>600405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>动力源</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>沪深A股</t>
         </is>
       </c>
@@ -514,20 +885,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17.73</v>
+        <v>5.62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>19.84</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>45716.41597222222</v>
+      <c r="I2" s="3" t="n">
+        <v>45721.41875</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>每天进步一点点_002213_卖出_0.00_095900</t>
+          <t>超短稳定复利_600405_卖出_0.00_100300</t>
         </is>
       </c>
     </row>
@@ -537,12 +908,14 @@
           <t>低位题材</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>603990</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>600775</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>麦迪科技</t>
+          <t>南京熊猫</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,7 +929,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14.83</v>
+        <v>10.57</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -564,182 +937,12 @@
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>45716.54652777778</v>
+      <c r="I3" s="3" t="n">
+        <v>45721.46388888889</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>低位题材_603990_买入_100.00_130700</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>低位题材</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2244</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>滨江集团</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>45716.54652777778</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>低位题材_002244_卖出_0.00_130700</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>低位题材</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>603990</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>麦迪科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>45719.46319444444</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>低位题材_603990_卖出_0.00_110700</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>603843</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>正平股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>45719.55625</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>超短稳定复利_603843_买入_20.00_132100</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>600405</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>动力源</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45720.44166666667</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>超短稳定复利_600405_买入_20.00_103600</t>
+          <t>低位题材_600775_买入_100.00_110800</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="股票组合最新调仓" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,62 +492,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513070</v>
+        <v>600405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股消费ETF易方达</t>
+          <t>动力源</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.392</v>
+        <v>5.62</v>
       </c>
       <c r="G2" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>45721.39513888889</v>
+      <c r="I2" s="2" t="n">
+        <v>45721.41875</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点追击ETF_513070_买入_20.00_092900</t>
+          <t>超短稳定复利_600405_卖出_0.00_100300</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>低位题材</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159751</v>
+        <v>600775</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>港股科技ETF</t>
+          <t>南京熊猫</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,40 +556,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.054</v>
+        <v>10.57</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45721.39583333334</v>
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45721.46388888889</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>热点追击ETF_159751_买入_30.00_093000</t>
+          <t>低位题材_600775_买入_100.00_110800</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>波段优选ETF</t>
+          <t>每天进步一点点</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516640</v>
+        <v>2276</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>芯片龙头ETF</t>
+          <t>万马股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -600,7 +598,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.829</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -608,32 +606,32 @@
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>45721.4</v>
+      <c r="I4" s="2" t="n">
+        <v>45722.39305555556</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>波段优选ETF_516640_买入_100.00_093600</t>
+          <t>每天进步一点点_002276_买入_100.00_092600</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>科技腾飞精选</t>
+          <t>中线龙头</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516350</v>
+        <v>2706</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>芯片ETF易方达</t>
+          <t>良信股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,307 +640,106 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.923</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>45721.4</v>
+        <v>75.25</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45722.43611111111</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>科技腾飞精选_516350_买入_100.00_093600</t>
+          <t>中线龙头_002706_买入_75.25_102800</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投</t>
+          <t>中线龙头</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159887</v>
+        <v>603328</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>依顿电子</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.22</v>
+        <v>10.54</v>
       </c>
       <c r="G6" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>45721.45694444444</v>
+      <c r="I6" s="2" t="n">
+        <v>45722.44861111111</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投_159887_买入_60.00_105800</t>
+          <t>中线龙头_603328_卖出_0.00_104600</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>512730</v>
+          <t>低位题材</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>600775</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证银行ETF</t>
+          <t>南京熊猫</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.543</v>
+        <v>10.72</v>
       </c>
       <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>45721.475</v>
+      <c r="I7" s="2" t="n">
+        <v>45722.59375</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投_512730_买入_39.84_112400</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>香港证券ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.612</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>45721.47847222222</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>热点追击ETF_513090_买入_50.00_112900</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>当前比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>strict_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>600405</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>动力源</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>45721.41875</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>超短稳定复利_600405_卖出_0.00_100300</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低位题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>600775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南京熊猫</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45721.46388888889</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>低位题材_600775_买入_100.00_110800</t>
+          <t>低位题材_600775_卖出_0.00_141500</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,10 +705,8 @@
           <t>低位题材</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>600775</t>
-        </is>
+      <c r="B7" t="n">
+        <v>600775</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -740,6 +738,218 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>低位题材_600775_卖出_0.00_141500</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>603843</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>正平股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45723.41597222222</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603843_卖出_0.00_095900</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中线龙头</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2706</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>良信股份</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>76</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45723.44236111111</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>中线龙头_002706_卖出_0.00_103700</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>603211</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>晋拓股份</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45723.59097222222</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603211_买入_20.00_141100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2276</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万马股份</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45723.60694444444</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>每天进步一点点_002276_卖出_0.00_143400</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>岩山科技</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45726.39444444444</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>每天进步一点点_002195_买入_100.00_092800</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +524,7 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>45721.41875</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -564,7 +566,7 @@
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>45721.46388888889</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -606,7 +608,7 @@
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>45722.39305555556</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -648,7 +650,7 @@
       <c r="H5" t="n">
         <v>75.25</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>45722.43611111111</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -690,7 +692,7 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>45722.44861111111</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -732,7 +734,7 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>45722.59375</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -774,7 +776,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>45723.41597222222</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -816,7 +818,7 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>45723.44236111111</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -858,7 +860,7 @@
       <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>45723.59097222222</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -900,7 +902,7 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>45723.60694444444</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -915,10 +917,8 @@
           <t>每天进步一点点</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002195</t>
-        </is>
+      <c r="B12" t="n">
+        <v>2195</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -944,12 +944,297 @@
       <c r="H12" t="n">
         <v>100</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>45726.39444444444</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>每天进步一点点_002195_买入_100.00_092800</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>603211</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>晋拓股份</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>45727.44166666667</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603211_卖出_10.00_103600</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>603211</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>晋拓股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>45727.44583333333</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603211_卖出_5.00_104200</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>600099</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>45727.55625</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600099_买入_20.00_132100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>603211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>晋拓股份</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>45727.59375</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603211_卖出_0.00_141500</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>当前比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>strict_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国防ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45727.42569444444</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>热点追击ETF_512670_买入_100.00_101300</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/ETF和组合_今天调仓.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +522,7 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45721.41875</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,7 +564,7 @@
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45721.46388888889</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -608,7 +606,7 @@
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45722.39305555556</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -650,7 +648,7 @@
       <c r="H5" t="n">
         <v>75.25</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45722.43611111111</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -692,7 +690,7 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45722.44861111111</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -734,7 +732,7 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45722.59375</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -776,7 +774,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45723.41597222222</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -818,7 +816,7 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45723.44236111111</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -860,7 +858,7 @@
       <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45723.59097222222</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -902,7 +900,7 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45723.60694444444</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -944,7 +942,7 @@
       <c r="H12" t="n">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45726.39444444444</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -986,7 +984,7 @@
       <c r="H13" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45727.44166666667</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1028,7 +1026,7 @@
       <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45727.44583333333</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1070,7 +1068,7 @@
       <c r="H15" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45727.55625</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1085,10 +1083,8 @@
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>603211</t>
-        </is>
+      <c r="B16" t="n">
+        <v>603211</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1114,7 +1110,7 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45727.59375</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1123,118 +1119,215 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>当前比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>strict_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512670</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国防ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>600099</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45728.41736111111</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600099_卖出_10.00_100100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>603216</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>梦天家居</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F18" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45728.45555555556</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603216_买入_20.00_105600</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>600099</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45728.60069444445</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600099_卖出_5.00_142500</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2195</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>岩山科技</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="G20" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>45727.42569444444</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>热点追击ETF_512670_买入_100.00_101300</t>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45728.61527777778</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>每天进步一点点_002195_卖出_0.00_144600</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>600126</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>杭钢股份</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45728.61736111111</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>每天进步一点点_600126_买入_25.00_144900</t>
         </is>
       </c>
     </row>
